--- a/data/data_co2_map.xlsx
+++ b/data/data_co2_map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VictorSchmitt\Desktop\CO2 Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{846713FB-0641-42EC-9A72-BA7386813F9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F830F70-CB80-49FE-9CA2-7266DA9CA17D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23205" yWindow="-21720" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23205" yWindow="-21720" windowWidth="38640" windowHeight="21120" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GEN - Top 20 emit. facilities" sheetId="1" r:id="rId1"/>
@@ -84,9 +84,6 @@
     <t>lat</t>
   </si>
   <si>
-    <t>WOR01</t>
-  </si>
-  <si>
     <t>Facility</t>
   </si>
   <si>
@@ -148,9 +145,6 @@
   </si>
   <si>
     <t xml:space="preserve">https://latrobevalleyexpress.com.au/news/2023/02/21/shoddy-end-to-85-year-operation/ </t>
-  </si>
-  <si>
-    <t>Orora Botany Mill</t>
   </si>
   <si>
     <t>Botany, New South Wales</t>
@@ -568,9 +562,6 @@
     <t>Stanwell Power Station</t>
   </si>
   <si>
-    <t>Start up and Operations of the Ichthys LNG Project</t>
-  </si>
-  <si>
     <t>Gladstone Power Station</t>
   </si>
   <si>
@@ -583,9 +574,6 @@
     <t>Mt Piper Power Station</t>
   </si>
   <si>
-    <t>Wheatstone Operations</t>
-  </si>
-  <si>
     <t>Queensland Alumina Limited Refinery</t>
   </si>
   <si>
@@ -644,6 +632,18 @@
   </si>
   <si>
     <t>RTA Yarwun Pty Ltd</t>
+  </si>
+  <si>
+    <t>Ichthys LNG Project</t>
+  </si>
+  <si>
+    <t>Wheatstone Gas &amp; Oil Project</t>
+  </si>
+  <si>
+    <t>Worsley Alumina</t>
+  </si>
+  <si>
+    <t>Orora Matraville Mill</t>
   </si>
 </sst>
 </file>
@@ -696,7 +696,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -705,38 +705,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -746,12 +721,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1036,8 +1009,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1048,28 +1021,28 @@
     <col min="4" max="4" width="21.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="35.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="35.5546875" customWidth="1"/>
-    <col min="7" max="7" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>12</v>
@@ -1080,13 +1053,13 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D2">
         <v>18723707</v>
@@ -1094,8 +1067,8 @@
       <c r="E2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="17" t="s">
-        <v>27</v>
+      <c r="F2" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="G2">
         <v>146.57533000000001</v>
@@ -1106,13 +1079,13 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D3">
         <v>13712719</v>
@@ -1120,25 +1093,25 @@
       <c r="E3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="17" t="s">
-        <v>27</v>
+      <c r="F3" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="G3">
-        <v>150.94919999999999</v>
+        <v>150.95201709537801</v>
       </c>
       <c r="H3">
-        <v>-32.395000000000003</v>
+        <v>-32.384030264595303</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D4">
         <v>13550220</v>
@@ -1146,25 +1119,25 @@
       <c r="E4" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="17" t="s">
-        <v>27</v>
+      <c r="F4" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="G4">
-        <v>151.529</v>
+        <v>151.518071787483</v>
       </c>
       <c r="H4">
-        <v>-33.07</v>
+        <v>-33.065365589820097</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D5">
         <v>10936021</v>
@@ -1172,25 +1145,25 @@
       <c r="E5" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="17" t="s">
-        <v>27</v>
+      <c r="F5" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="G5">
-        <v>151.958</v>
+        <v>151.91453233797199</v>
       </c>
       <c r="H5">
-        <v>-26.738</v>
+        <v>-26.780550944887</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D6">
         <v>10502080</v>
@@ -1198,25 +1171,25 @@
       <c r="E6" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="17" t="s">
-        <v>27</v>
+      <c r="F6" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="G6">
-        <v>146.33332999999999</v>
+        <v>146.347111780928</v>
       </c>
       <c r="H6">
-        <v>-38.183329999999998</v>
+        <v>-38.180717880217998</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D7">
         <v>9643955</v>
@@ -1224,25 +1197,25 @@
       <c r="E7" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="17" t="s">
-        <v>27</v>
+      <c r="F7" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="G7">
-        <v>146.5864</v>
+        <v>146.585085624454</v>
       </c>
       <c r="H7">
-        <v>-38.256100000000004</v>
+        <v>-38.256564865462302</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D8">
         <v>8802650</v>
@@ -1250,25 +1223,25 @@
       <c r="E8" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="17" t="s">
-        <v>27</v>
+      <c r="F8" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="G8">
-        <v>115.44965000000001</v>
+        <v>115.44662609165201</v>
       </c>
       <c r="H8">
-        <v>-20.79</v>
+        <v>-20.789997937456501</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D9">
         <v>7111963</v>
@@ -1276,25 +1249,25 @@
       <c r="E9" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="17" t="s">
-        <v>27</v>
+      <c r="F9" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="G9">
-        <v>151.541</v>
+        <v>151.541600365813</v>
       </c>
       <c r="H9">
-        <v>-33.08</v>
+        <v>-33.162067178911101</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D10">
         <v>6982204</v>
@@ -1302,25 +1275,25 @@
       <c r="E10" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="17" t="s">
-        <v>27</v>
+      <c r="F10" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="G10">
-        <v>150.73599999999999</v>
+        <v>150.319527696747</v>
       </c>
       <c r="H10">
-        <v>-23.721</v>
+        <v>-23.508906439853501</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>155</v>
+        <v>177</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D11">
         <v>6698961</v>
@@ -1328,25 +1301,25 @@
       <c r="E11" t="s">
         <v>4</v>
       </c>
-      <c r="F11" s="17" t="s">
-        <v>27</v>
+      <c r="F11" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="G11">
-        <v>130.86799999999999</v>
+        <v>130.91946918094601</v>
       </c>
       <c r="H11">
-        <v>-12.622</v>
+        <v>-12.517662769537701</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B12" t="s">
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D12">
         <v>6698961</v>
@@ -1354,25 +1327,25 @@
       <c r="E12" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="17" t="s">
-        <v>27</v>
+      <c r="F12" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="G12">
-        <v>151.25299999999999</v>
+        <v>151.21806486471999</v>
       </c>
       <c r="H12">
-        <v>-23.847000000000001</v>
+        <v>-23.849356561870501</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D13">
         <v>5962350.0000000009</v>
@@ -1380,8 +1353,8 @@
       <c r="E13" t="s">
         <v>8</v>
       </c>
-      <c r="F13" s="17" t="s">
-        <v>27</v>
+      <c r="F13" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="G13">
         <v>116.72</v>
@@ -1392,13 +1365,13 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D14">
         <v>5945869</v>
@@ -1406,25 +1379,25 @@
       <c r="E14" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="17" t="s">
-        <v>27</v>
+      <c r="F14" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="G14">
-        <v>150.91800000000001</v>
+        <v>150.89062031931701</v>
       </c>
       <c r="H14">
-        <v>-34.46</v>
+        <v>-34.473719108395699</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B15" t="s">
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D15">
         <v>5672338</v>
@@ -1432,25 +1405,25 @@
       <c r="E15" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="17" t="s">
-        <v>27</v>
+      <c r="F15" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="G15">
-        <v>150.126</v>
+        <v>150.03213167022801</v>
       </c>
       <c r="H15">
-        <v>-33.459000000000003</v>
+        <v>-33.358400580348103</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D16">
         <v>3772123</v>
@@ -1458,25 +1431,25 @@
       <c r="E16" t="s">
         <v>8</v>
       </c>
-      <c r="F16" s="17" t="s">
-        <v>27</v>
+      <c r="F16" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="G16">
-        <v>115.107</v>
+        <v>115.040552395018</v>
       </c>
       <c r="H16">
-        <v>-20.65</v>
+        <v>-21.779761949785598</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>179</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D17">
         <v>3168745</v>
@@ -1484,25 +1457,25 @@
       <c r="E17" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="17" t="s">
-        <v>27</v>
+      <c r="F17" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="G17">
-        <v>116.33199999999999</v>
+        <v>116.066112290685</v>
       </c>
       <c r="H17">
-        <v>-33.887999999999998</v>
+        <v>-33.2390545384634</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B18" t="s">
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D18">
         <v>3086354</v>
@@ -1510,25 +1483,25 @@
       <c r="E18" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="17" t="s">
-        <v>27</v>
+      <c r="F18" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="G18">
-        <v>151.215</v>
+        <v>151.28896307699799</v>
       </c>
       <c r="H18">
-        <v>-23.847999999999999</v>
+        <v>-23.8675918288925</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B19" t="s">
         <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D19">
         <v>1988493</v>
@@ -1536,25 +1509,25 @@
       <c r="E19" t="s">
         <v>8</v>
       </c>
-      <c r="F19" s="17" t="s">
-        <v>27</v>
+      <c r="F19" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="G19">
-        <v>140.19499999999999</v>
+        <v>140.20697714907001</v>
       </c>
       <c r="H19">
-        <v>-28.06</v>
+        <v>-28.1120505626515</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B20" t="s">
         <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D20">
         <v>2084631</v>
@@ -1562,25 +1535,25 @@
       <c r="E20" t="s">
         <v>8</v>
       </c>
-      <c r="F20" s="17" t="s">
-        <v>27</v>
+      <c r="F20" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="G20">
-        <v>151.34</v>
+        <v>151.191174947663</v>
       </c>
       <c r="H20">
-        <v>-23.885000000000002</v>
+        <v>-23.758162346430801</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B21" t="s">
         <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D21">
         <v>2108611</v>
@@ -1588,14 +1561,14 @@
       <c r="E21" t="s">
         <v>9</v>
       </c>
-      <c r="F21" s="17" t="s">
-        <v>27</v>
+      <c r="F21" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="G21">
-        <v>151.274</v>
+        <v>151.15324739475</v>
       </c>
       <c r="H21">
-        <v>-23.831</v>
+        <v>-23.8292031478388</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
@@ -1624,7 +1597,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="L1" sqref="K1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1639,39 +1612,40 @@
     <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.5546875" customWidth="1"/>
-    <col min="11" max="12" width="15.21875" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>12</v>
@@ -1682,22 +1656,22 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>25</v>
       </c>
       <c r="E2">
         <v>285000</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G2">
         <v>0.66</v>
@@ -1707,36 +1681,36 @@
         <v>188100</v>
       </c>
       <c r="I2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="5" t="s">
-        <v>28</v>
-      </c>
       <c r="K2">
-        <v>147.10175000000001</v>
+        <v>147.10211361557799</v>
       </c>
       <c r="L2">
-        <v>-42.778019999999998</v>
+        <v>-42.780241897290303</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="E3">
         <v>600000</v>
       </c>
       <c r="F3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G3">
         <v>0.66</v>
@@ -1746,36 +1720,36 @@
         <v>396000</v>
       </c>
       <c r="I3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="K3">
-        <v>146.44794999999999</v>
+        <v>146.447181571914</v>
       </c>
       <c r="L3">
-        <v>-38.183030000000002</v>
+        <v>-38.184551238187403</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="E4">
         <v>400000</v>
       </c>
       <c r="F4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G4">
         <v>0.39</v>
@@ -1785,36 +1759,36 @@
         <v>156000</v>
       </c>
       <c r="I4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>41</v>
+        <v>26</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="K4">
-        <v>151.22363999999999</v>
+        <v>151.22442615824301</v>
       </c>
       <c r="L4">
-        <v>-33.963850000000001</v>
+        <v>-33.963858524558503</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="E5">
         <v>680000</v>
       </c>
       <c r="F5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G5">
         <v>0.66</v>
@@ -1824,36 +1798,36 @@
         <v>448800</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="K5">
-        <v>148.22300000000001</v>
+        <v>148.13678030133599</v>
       </c>
       <c r="L5">
-        <v>-35.302999999999997</v>
+        <v>-35.295735552347303</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="E6">
         <v>180000</v>
       </c>
       <c r="F6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G6">
         <v>0.66</v>
@@ -1863,33 +1837,33 @@
         <v>118800</v>
       </c>
       <c r="I6" t="s">
-        <v>53</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="K6">
-        <v>144.91</v>
+        <v>144.935776390341</v>
       </c>
       <c r="L6">
-        <v>-37.665999999999997</v>
+        <v>-37.645811268688703</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G7">
         <v>0.39</v>
@@ -1899,36 +1873,36 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>11</v>
       </c>
       <c r="K7">
-        <v>150.94800000000001</v>
+        <v>150.94931916999499</v>
       </c>
       <c r="L7">
-        <v>-33.8504</v>
+        <v>-33.850164954521802</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="E8">
         <v>15000000</v>
       </c>
       <c r="F8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G8">
         <v>0.39</v>
@@ -1938,36 +1912,36 @@
         <v>5850000</v>
       </c>
       <c r="I8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K8">
-        <v>145.005</v>
+        <v>144.982829278248</v>
       </c>
       <c r="L8">
-        <v>-37.746000000000002</v>
+        <v>-37.713323790944003</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>64</v>
       </c>
       <c r="E9">
         <v>85000</v>
       </c>
       <c r="F9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G9">
         <v>0.39</v>
@@ -1977,36 +1951,36 @@
         <v>33150</v>
       </c>
       <c r="I9" t="s">
-        <v>27</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>65</v>
+        <v>26</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="K9">
-        <v>140.42660000000001</v>
+        <v>140.428966620707</v>
       </c>
       <c r="L9">
-        <v>-37.673789999999997</v>
+        <v>-37.6732094628764</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="E10">
         <v>20000</v>
       </c>
       <c r="F10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G10">
         <v>0.39</v>
@@ -2016,16 +1990,16 @@
         <v>7800</v>
       </c>
       <c r="I10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K10">
-        <v>152.93783300000001</v>
+        <v>152.93740580555701</v>
       </c>
       <c r="L10">
-        <v>-27.619499999999999</v>
+        <v>-27.619361125187801</v>
       </c>
     </row>
   </sheetData>
@@ -2050,55 +2024,56 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I4"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.5546875" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="56.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="31.6640625" customWidth="1"/>
+    <col min="1" max="1" width="29.5546875" style="11" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="56.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.21875" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.21875" style="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.6640625" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>12</v>
@@ -2108,271 +2083,271 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="D2" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="D2" s="14" t="s">
+      <c r="E2" s="7">
+        <v>265000</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="E2" s="16">
-        <v>265000</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="G2" s="16">
+      <c r="G2" s="7">
         <v>0.15</v>
       </c>
-      <c r="H2" s="16">
+      <c r="H2" s="7">
         <f>G2*E2</f>
         <v>39750</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="K2" s="3">
+        <v>150.61152802857001</v>
+      </c>
+      <c r="L2" s="3">
+        <v>-34.857228359018102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="J2" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="K2" s="19">
-        <v>150.60905</v>
-      </c>
-      <c r="L2" s="19">
-        <v>-34.853850000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
+      <c r="C3" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="D3" s="14" t="s">
+      <c r="E3" s="7">
+        <v>600000</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="E3" s="16">
-        <v>600000</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="G3" s="16">
+      <c r="G3" s="7">
         <v>0.15</v>
       </c>
-      <c r="H3" s="16">
+      <c r="H3" s="7">
         <f>G3*E3</f>
         <v>90000</v>
       </c>
-      <c r="I3" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="J3" s="18" t="s">
+      <c r="I3" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="K3" s="3">
+        <v>148.69849063498901</v>
+      </c>
+      <c r="L3" s="3">
+        <v>-33.186389097135098</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="K3" s="19">
-        <v>148.69749999999999</v>
-      </c>
-      <c r="L3" s="19">
-        <v>-33.186399999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="B4" s="14" t="s">
+      <c r="C4" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="C4" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="D4" s="14" t="s">
+      <c r="E4" s="7">
+        <v>110000</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="E4" s="16">
-        <v>110000</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="G4" s="16">
+      <c r="G4" s="7">
         <v>0.2</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="7">
         <f>G4*E4</f>
         <v>22000</v>
       </c>
-      <c r="I4" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" s="18" t="s">
+      <c r="I4" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="K4" s="3">
+        <v>115.968197978853</v>
+      </c>
+      <c r="L4" s="3">
+        <v>-31.9948784826856</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="K4" s="19">
-        <v>115.8605</v>
-      </c>
-      <c r="L4" s="19">
-        <v>-31.950500000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
+      <c r="B5" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="B5" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="D5" s="14" t="s">
+      <c r="E5" s="7">
+        <v>20000</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="E5" s="16">
-        <v>20000</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="G5" s="16">
+      <c r="G5" s="7">
         <v>0.19</v>
       </c>
-      <c r="H5" s="16">
+      <c r="H5" s="7">
         <f>G5*E5</f>
         <v>3800</v>
       </c>
-      <c r="I5" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="J5" s="18" t="s">
+      <c r="I5" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="K5" s="3">
+        <v>150.23421974191399</v>
+      </c>
+      <c r="L5" s="3">
+        <v>-30.977809617005502</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="K5" s="19">
-        <v>150.25399999999999</v>
-      </c>
-      <c r="L5" s="19">
-        <v>-30.975999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
+      <c r="B6" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="B6" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="D6" s="14" t="s">
+      <c r="E6" s="7">
+        <v>18000</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="E6" s="16">
-        <v>18000</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="G6" s="16">
+      <c r="G6" s="7">
         <v>0.11</v>
       </c>
-      <c r="H6" s="16">
+      <c r="H6" s="7">
         <f>G6*E6</f>
         <v>1980</v>
       </c>
-      <c r="I6" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="J6" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="K6" s="19">
-        <v>147.13677999999999</v>
-      </c>
-      <c r="L6" s="19">
-        <v>-41.432679999999998</v>
+      <c r="I6" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="K6" s="3">
+        <v>147.136704638212</v>
+      </c>
+      <c r="L6" s="3">
+        <v>-41.432516299790102</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="4"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="10"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="8"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="7"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="8"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="7"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="8"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="7"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="8"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="7"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="8"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2391,56 +2366,55 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:L1"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="46.21875" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.33203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="70" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="59.109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.33203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.21875" style="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15" style="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.88671875" style="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10" style="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.6640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.6640625" style="14"/>
+    <col min="1" max="1" width="46.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="70" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="59.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.6640625" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>12</v>
@@ -2451,22 +2425,22 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>114</v>
       </c>
       <c r="E2" s="3">
         <v>250000</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G2" s="3">
         <v>0</v>
@@ -2476,36 +2450,36 @@
         <v>0</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="K2" s="13">
-        <v>153.11699999999999</v>
-      </c>
-      <c r="L2" s="13">
-        <v>-27.434999999999999</v>
+        <v>26</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="K2" s="3">
+        <v>153.11532801518899</v>
+      </c>
+      <c r="L2" s="3">
+        <v>-27.441001566672</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E3" s="3">
         <v>2000000</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G3" s="3">
         <v>0</v>
@@ -2515,36 +2489,36 @@
         <v>0</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="K3" s="13">
-        <v>150.90799999999999</v>
-      </c>
-      <c r="L3" s="13">
-        <v>-33.799999999999997</v>
+        <v>26</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="K3" s="3">
+        <v>150.83172224940799</v>
+      </c>
+      <c r="L3" s="3">
+        <v>-33.799596920670901</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E4" s="3">
         <v>460000</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G4" s="3">
         <v>0.9</v>
@@ -2554,36 +2528,36 @@
         <v>414000</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="J4" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="K4" s="13">
-        <v>115.77851</v>
-      </c>
-      <c r="L4" s="13">
-        <v>-32.2102</v>
+        <v>51</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="K4" s="3">
+        <v>115.777679429976</v>
+      </c>
+      <c r="L4" s="3">
+        <v>-32.2102920423822</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E5" s="3">
         <v>380000</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G5" s="3">
         <v>0.9</v>
@@ -2593,36 +2567,36 @@
         <v>342000</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="J5" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="K5" s="15">
-        <v>149.857</v>
-      </c>
-      <c r="L5" s="13">
-        <v>-35.116</v>
+        <v>51</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="K5" s="3">
+        <v>115.816829220503</v>
+      </c>
+      <c r="L5" s="3">
+        <v>-32.285440332113303</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E6" s="3">
         <v>2500000</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G6" s="3">
         <v>0.8</v>
@@ -2632,36 +2606,36 @@
         <v>2000000</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J6" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="K6" s="15">
-        <v>153.1</v>
-      </c>
-      <c r="L6" s="13">
-        <v>-27.6</v>
+        <v>33</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="K6" s="3">
+        <v>153.12302477284501</v>
+      </c>
+      <c r="L6" s="3">
+        <v>-27.556319917382801</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E7" s="3">
         <v>1300000</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G7" s="3">
         <v>0.8</v>
@@ -2671,36 +2645,36 @@
         <v>1040000</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J7" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="K7" s="13">
-        <v>144.72710000000001</v>
-      </c>
-      <c r="L7" s="13">
-        <v>-37.788980000000002</v>
+        <v>33</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="K7" s="3">
+        <v>144.722017414937</v>
+      </c>
+      <c r="L7" s="3">
+        <v>-37.787690354616402</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E8" s="3">
         <v>970000</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G8" s="3">
         <v>0.8</v>
@@ -2710,60 +2684,60 @@
         <v>776000</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J8" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="K8" s="15">
-        <v>150.99</v>
-      </c>
-      <c r="L8" s="13">
-        <v>-34.058</v>
+        <v>33</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="K8" s="3">
+        <v>150.97284943997599</v>
+      </c>
+      <c r="L8" s="3">
+        <v>-34.045589100615501</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="17"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="8"/>
       <c r="J9" s="3"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="17"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="8"/>
       <c r="J10" s="3"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="16"/>
+      <c r="E11" s="7"/>
       <c r="F11" s="3"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="17"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="8"/>
       <c r="J11" s="3"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="16"/>
+      <c r="E12" s="7"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="17"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="8"/>
       <c r="J12" s="3"/>
     </row>
   </sheetData>
@@ -2785,8 +2759,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:L1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2807,34 +2781,34 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>12</v>
@@ -2845,22 +2819,22 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E2">
         <v>35000</v>
       </c>
       <c r="F2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G2">
         <v>0.6</v>
@@ -2870,36 +2844,36 @@
         <v>21000</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K2">
-        <v>115.89798</v>
+        <v>115.89828355143101</v>
       </c>
       <c r="L2">
-        <v>-32.104559999999999</v>
+        <v>-32.104366066525799</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E3">
         <v>236000</v>
       </c>
       <c r="F3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G3">
         <v>0.9</v>
@@ -2909,10 +2883,10 @@
         <v>212400</v>
       </c>
       <c r="I3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K3">
         <v>150.6105</v>

--- a/data/data_co2_map.xlsx
+++ b/data/data_co2_map.xlsx
@@ -5,19 +5,20 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VictorSchmitt\Desktop\CO2 Study\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sopersas.sharepoint.com/sites/Gridlink-MGHEnergy/Shared Documents/Gridlink - MGH Energy/02 - Land prospecting/CO2 Study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F830F70-CB80-49FE-9CA2-7266DA9CA17D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="181" documentId="13_ncr:1_{9F830F70-CB80-49FE-9CA2-7266DA9CA17D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{714FE38B-57A7-4297-A443-A37FBECBD775}"/>
   <bookViews>
-    <workbookView xWindow="-23205" yWindow="-21720" windowWidth="38640" windowHeight="21120" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15195" yWindow="-21720" windowWidth="38640" windowHeight="21120" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GEN - Top 20 emit. facilities" sheetId="1" r:id="rId1"/>
     <sheet name="BIO - Paper mill" sheetId="2" r:id="rId2"/>
     <sheet name="BIO - Flour mill" sheetId="3" r:id="rId3"/>
     <sheet name="BIO - Landfills" sheetId="5" r:id="rId4"/>
-    <sheet name="BIO - Ana. digestion" sheetId="4" r:id="rId5"/>
+    <sheet name="BIO - Waste" sheetId="7" r:id="rId5"/>
+    <sheet name="BIO - Ana. digestion" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="217">
   <si>
     <t>Location</t>
   </si>
@@ -400,9 +401,6 @@
     <t>https://www.cefc.com.au/case-studies/richgro-green-thumb-grows-green-power/</t>
   </si>
   <si>
-    <t xml:space="preserve">organic waste </t>
-  </si>
-  <si>
     <t>Manildra Ethanol Plant</t>
   </si>
   <si>
@@ -457,9 +455,6 @@
     <t>Cleanaway / Veolia</t>
   </si>
   <si>
-    <t>460,000 tonnes per year of waste for EtW</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://arena.gov.au/projects/kwinana-energy-recovery-project/ </t>
   </si>
   <si>
@@ -472,36 +467,15 @@
     <t xml:space="preserve">Veolia / Woodlawn Bioreactor </t>
   </si>
   <si>
-    <t>380,000 tonnes per year of waste for EtW</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://www.anz.veolia.com/our-facilities/energy-from-waste/woodlawn </t>
   </si>
   <si>
-    <r>
-      <t>MSW incineration</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (asumido)</t>
-    </r>
-  </si>
-  <si>
     <t>Rochedale Landfill</t>
   </si>
   <si>
     <t>SUEZ / Rochedale Recycling &amp; Waste</t>
   </si>
   <si>
-    <t>2.5 million tonnes of general waste, 7MW EtW</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://www.clarke-energy.com/2022/rochedale-biogas-to-renewable-electricity/ </t>
   </si>
   <si>
@@ -644,6 +618,131 @@
   </si>
   <si>
     <t>Orora Matraville Mill</t>
+  </si>
+  <si>
+    <t>MSW incineration (assumed)</t>
+  </si>
+  <si>
+    <t>460,000 tonnes per year of waste for EfW</t>
+  </si>
+  <si>
+    <t>380,000 tonnes per year of waste for EfW</t>
+  </si>
+  <si>
+    <t>2.5 million tonnes of general waste, 7MW EfW</t>
+  </si>
+  <si>
+    <t>EarthPower</t>
+  </si>
+  <si>
+    <t>62,500 tonnes of solid and liquid food waste per year</t>
+  </si>
+  <si>
+    <t>Veolia</t>
+  </si>
+  <si>
+    <t>Solid food waste</t>
+  </si>
+  <si>
+    <t>https://www.anz.veolia.com/en-au/our-facilities/energy-from-waste/earthpower#:~:text=EarthPower:%20Australia's%20first%20food%20waste,Sydney's%20waste%20away%20from%20landfills.</t>
+  </si>
+  <si>
+    <t>24,000 tonnes of oat husks each year as a by-product of its production.</t>
+  </si>
+  <si>
+    <t>Blue Lake Milling</t>
+  </si>
+  <si>
+    <t>Bordertown</t>
+  </si>
+  <si>
+    <t>Oat husks</t>
+  </si>
+  <si>
+    <t>https://www.graincentral.com/news/blue-lake-milling-to-turn-oat-husks-into-power/</t>
+  </si>
+  <si>
+    <t>Suncoast Gold Macadamias cogeneration facility</t>
+  </si>
+  <si>
+    <t>Ergon Energy /  Powerdirect Australia / Suncoast</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5,000t of waste nut shells annually, 6MW steam boiler, 1.5MW steam turbine. The facility uses 1,680kg of waste nut shells to produce 1.5MW of electricity in one hour.</t>
+  </si>
+  <si>
+    <t>https://www.power-technology.com/projects/suncoast-gold/?cf-view</t>
+  </si>
+  <si>
+    <t>Gympie, QLD</t>
+  </si>
+  <si>
+    <t>plant can generate a total of 1,300 MWh of electricity a year / 275,000 litres of sewerage effluent per day to biogas (methane)</t>
+  </si>
+  <si>
+    <t>biogas</t>
+  </si>
+  <si>
+    <t>Berrybank Farm</t>
+  </si>
+  <si>
+    <t>Windermere, VIC</t>
+  </si>
+  <si>
+    <t>https://penskeanz.com/wp-content/uploads/2021/04/150827_Berrybank-Case-Study-PPS_FINAL_1497607477.pdf</t>
+  </si>
+  <si>
+    <t>private</t>
+  </si>
+  <si>
+    <t>Biomass Boiler, 90,000 tonnes of grape marc</t>
+  </si>
+  <si>
+    <t>Mildura</t>
+  </si>
+  <si>
+    <t>Australian Tartaric Products</t>
+  </si>
+  <si>
+    <t>Mildura, VIC</t>
+  </si>
+  <si>
+    <t>grape marc</t>
+  </si>
+  <si>
+    <t>https://www.australiantartaric.com.au/natural-process#:~:text=Sustainable%20Innovation%20Driving%20ATP%20Forward,competitiveness%20through%20innovation%20and%20efficiency</t>
+  </si>
+  <si>
+    <t>sludge facilities treat a solids load of 120 tonnes of dried solids per day, 3x 2G Avus 1500b 1.5MWe, 9000 MWh of renewable electricity produced annuall</t>
+  </si>
+  <si>
+    <t>Woodman Point, WA</t>
+  </si>
+  <si>
+    <t>Evo Energy Technologies</t>
+  </si>
+  <si>
+    <t>Woodman Point Wastewater Recovery and Reuse Facility (WRRF)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.webuild-group.com.au/en/projects/woodman-point-wrrf-sludge-treatment-upgrade/
+https://www.evoet.com.au/projects/woodman-point/
+</t>
+  </si>
+  <si>
+    <t>https://arena.gov.au/projects/east-rockingham-waste-to-energy/</t>
+  </si>
+  <si>
+    <t>330,000 tonnes of residual waste per annum and recover energy to produce 28.9 MW of power.</t>
+  </si>
+  <si>
+    <t>East Rockingham Waste to Energy (Project)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Organic waste </t>
+  </si>
+  <si>
+    <t>nut shells</t>
   </si>
 </sst>
 </file>
@@ -741,6 +840,64 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6145" name="AutoShape 1" descr="Australian Tartaric Products">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDADDBF4-0C42-D226-233D-3A1B091F5F6C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4838700" y="548640"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1053,13 +1210,13 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D2">
         <v>18723707</v>
@@ -1079,13 +1236,13 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D3">
         <v>13712719</v>
@@ -1105,13 +1262,13 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D4">
         <v>13550220</v>
@@ -1131,13 +1288,13 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D5">
         <v>10936021</v>
@@ -1157,13 +1314,13 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D6">
         <v>10502080</v>
@@ -1183,13 +1340,13 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D7">
         <v>9643955</v>
@@ -1209,13 +1366,13 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D8">
         <v>8802650</v>
@@ -1235,13 +1392,13 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D9">
         <v>7111963</v>
@@ -1261,13 +1418,13 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D10">
         <v>6982204</v>
@@ -1287,13 +1444,13 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D11">
         <v>6698961</v>
@@ -1313,13 +1470,13 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B12" t="s">
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D12">
         <v>6698961</v>
@@ -1339,13 +1496,13 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D13">
         <v>5962350.0000000009</v>
@@ -1365,13 +1522,13 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D14">
         <v>5945869</v>
@@ -1391,13 +1548,13 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B15" t="s">
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D15">
         <v>5672338</v>
@@ -1417,13 +1574,13 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D16">
         <v>3772123</v>
@@ -1443,13 +1600,13 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D17">
         <v>3168745</v>
@@ -1469,13 +1626,13 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B18" t="s">
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D18">
         <v>3086354</v>
@@ -1495,13 +1652,13 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B19" t="s">
         <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D19">
         <v>1988493</v>
@@ -1521,13 +1678,13 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B20" t="s">
         <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D20">
         <v>2084631</v>
@@ -1547,13 +1704,13 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B21" t="s">
         <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D21">
         <v>2108611</v>
@@ -1597,7 +1754,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L1" sqref="K1:L1048576"/>
+      <selection activeCell="I6" sqref="A3:I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1734,7 +1891,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>35</v>
@@ -2024,24 +2181,23 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.5546875" style="11" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="56.33203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.6640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.21875" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.21875" style="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.6640625" style="11"/>
+    <col min="1" max="1" width="29.5546875" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="56.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
@@ -2083,16 +2239,16 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+      <c r="A2" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" t="s">
         <v>74</v>
       </c>
       <c r="E2" s="7">
@@ -2122,16 +2278,16 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+      <c r="A3" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" t="s">
         <v>79</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" t="s">
         <v>80</v>
       </c>
       <c r="E3" s="7">
@@ -2161,16 +2317,16 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
+      <c r="A4" t="s">
         <v>98</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" t="s">
         <v>83</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" t="s">
         <v>84</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" t="s">
         <v>85</v>
       </c>
       <c r="E4" s="7">
@@ -2200,16 +2356,16 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
+      <c r="A5" t="s">
         <v>88</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" t="s">
         <v>89</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" t="s">
         <v>88</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" t="s">
         <v>90</v>
       </c>
       <c r="E5" s="7">
@@ -2239,16 +2395,16 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
+      <c r="A6" t="s">
         <v>93</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" t="s">
         <v>94</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" t="s">
         <v>93</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" t="s">
         <v>95</v>
       </c>
       <c r="E6" s="7">
@@ -2366,7 +2522,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2381,8 +2537,8 @@
     <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.21875" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
@@ -2425,22 +2581,22 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>110</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>111</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>42</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E2" s="3">
         <v>250000</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G2" s="3">
         <v>0</v>
@@ -2453,7 +2609,7 @@
         <v>26</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K2" s="3">
         <v>153.11532801518899</v>
@@ -2464,22 +2620,22 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>116</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>117</v>
       </c>
       <c r="E3" s="3">
         <v>2000000</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G3" s="3">
         <v>0</v>
@@ -2492,7 +2648,7 @@
         <v>26</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K3" s="3">
         <v>150.83172224940799</v>
@@ -2503,22 +2659,22 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>122</v>
+        <v>177</v>
       </c>
       <c r="E4" s="3">
         <v>460000</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G4" s="3">
         <v>0.9</v>
@@ -2531,7 +2687,7 @@
         <v>51</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K4" s="3">
         <v>115.777679429976</v>
@@ -2542,22 +2698,22 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>127</v>
+        <v>178</v>
       </c>
       <c r="E5" s="3">
         <v>380000</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>129</v>
+        <v>176</v>
       </c>
       <c r="G5" s="3">
         <v>0.9</v>
@@ -2570,7 +2726,7 @@
         <v>51</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="K5" s="3">
         <v>115.816829220503</v>
@@ -2581,22 +2737,22 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>132</v>
+        <v>179</v>
       </c>
       <c r="E6" s="3">
         <v>2500000</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="G6" s="3">
         <v>0.8</v>
@@ -2609,7 +2765,7 @@
         <v>33</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="K6" s="3">
         <v>153.12302477284501</v>
@@ -2620,22 +2776,22 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E7" s="3">
         <v>1300000</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="G7" s="3">
         <v>0.8</v>
@@ -2648,7 +2804,7 @@
         <v>33</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="K7" s="3">
         <v>144.722017414937</v>
@@ -2659,22 +2815,22 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E8" s="3">
         <v>970000</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="G8" s="3">
         <v>0.8</v>
@@ -2687,7 +2843,7 @@
         <v>33</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="K8" s="3">
         <v>150.97284943997599</v>
@@ -2697,15 +2853,43 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="3"/>
+      <c r="A9" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="E9" s="7">
+        <v>330000</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="H9" s="3">
+        <f t="shared" ref="H9" si="1">E9*G9</f>
+        <v>297000</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="K9" s="5">
+        <v>115.77455728524799</v>
+      </c>
+      <c r="L9" s="5">
+        <v>-32.251115574092701</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B10" s="3"/>
@@ -2749,34 +2933,34 @@
     <hyperlink ref="J6" r:id="rId5" xr:uid="{D70F4A0D-96ED-4173-ABB6-C4E53BDCC4FE}"/>
     <hyperlink ref="J7" r:id="rId6" xr:uid="{B21AF6DE-D56B-463D-9BD0-98ECE241AB64}"/>
     <hyperlink ref="J8" r:id="rId7" xr:uid="{ECE15D3F-6A62-4DA0-81A1-47D16D16316F}"/>
+    <hyperlink ref="J9" r:id="rId8" xr:uid="{DC7E4518-0DC4-41BC-8A56-85566B2B4697}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02BE217F-1218-4BEA-9FD3-DEE8B219D1DE}">
-  <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:L3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D488DE0E-CBD9-46B0-AED0-18DE400EDC19}">
+  <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="46.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="99.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="59.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.21875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
@@ -2818,88 +3002,654 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E2" s="3">
+        <f>1.68*24*365</f>
+        <v>14716.8</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="H2" s="3">
+        <f>E2*G2</f>
+        <v>13245.119999999999</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="K2" s="3">
+        <v>152.69779216887</v>
+      </c>
+      <c r="L2" s="3">
+        <v>-26.226047322510301</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D3" t="s">
+        <v>195</v>
+      </c>
+      <c r="E3">
+        <v>1300</v>
+      </c>
+      <c r="F3" t="s">
+        <v>196</v>
+      </c>
+      <c r="G3">
+        <v>0.45</v>
+      </c>
+      <c r="H3" s="3">
+        <f>E3*G3</f>
+        <v>585</v>
+      </c>
+      <c r="I3" t="s">
+        <v>108</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="K3">
+        <v>143.71001669341601</v>
+      </c>
+      <c r="L3">
+        <v>-37.461918204023902</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C4" t="s">
+        <v>203</v>
+      </c>
+      <c r="D4" t="s">
+        <v>201</v>
+      </c>
+      <c r="E4">
+        <v>90000</v>
+      </c>
+      <c r="F4" t="s">
+        <v>205</v>
+      </c>
+      <c r="G4">
+        <v>0.73</v>
+      </c>
+      <c r="H4">
+        <f>E4*G4</f>
+        <v>65700</v>
+      </c>
+      <c r="I4" t="s">
+        <v>108</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K4">
+        <v>142.32693946433699</v>
+      </c>
+      <c r="L4">
+        <v>-34.547104771271698</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="J2" r:id="rId1" xr:uid="{3310CC81-8561-4273-B703-CCEA0EAF4080}"/>
+    <hyperlink ref="J3" r:id="rId2" xr:uid="{D7014694-5E48-49A9-B609-BFB4DFCE3826}"/>
+    <hyperlink ref="J4" r:id="rId3" location=":~:text=Sustainable%20Innovation%20Driving%20ATP%20Forward,competitiveness%20through%20innovation%20and%20efficiency" xr:uid="{7E3183CA-1DFB-4029-B36D-BAEF7F9EDA74}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02BE217F-1218-4BEA-9FD3-DEE8B219D1DE}">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:L6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.77734375" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.21875" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.77734375" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="99.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.77734375" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.21875" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.88671875" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.6640625" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="11">
         <v>35000</v>
       </c>
-      <c r="F2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G2">
+      <c r="F2" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="G2" s="11">
         <v>0.6</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="11">
         <f>G2*E2</f>
         <v>21000</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="11">
         <v>115.89828355143101</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="11">
         <v>-32.104366066525799</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="D3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E3">
+      <c r="E3" s="11">
         <v>236000</v>
       </c>
-      <c r="F3" t="s">
-        <v>108</v>
-      </c>
-      <c r="G3">
+      <c r="F3" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="G3" s="11">
         <v>0.9</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="11">
         <f>E3*G3</f>
         <v>212400</v>
       </c>
-      <c r="I3" t="s">
-        <v>109</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="K3">
+      <c r="I3" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="K3" s="11">
         <v>150.6105</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="11">
         <v>-34.856070000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="E4" s="11">
+        <v>62500</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="G4" s="11">
+        <v>0.6</v>
+      </c>
+      <c r="H4" s="11">
+        <f>E4*G4</f>
+        <v>37500</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="K4" s="11">
+        <v>151.041365980439</v>
+      </c>
+      <c r="L4" s="11">
+        <v>-33.820334000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="E5" s="11">
+        <v>24000</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="G5" s="11">
+        <v>0.6</v>
+      </c>
+      <c r="H5" s="11">
+        <f>E5*G5</f>
+        <v>14400</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="K5" s="11">
+        <v>140.75707399999999</v>
+      </c>
+      <c r="L5" s="11">
+        <v>-36.316665</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="E6" s="11">
+        <v>9000</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="G6" s="11">
+        <v>0.45</v>
+      </c>
+      <c r="H6" s="11">
+        <f>E6*G6</f>
+        <v>4050</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="K6" s="11">
+        <v>115.772664612127</v>
+      </c>
+      <c r="L6" s="11">
+        <v>-32.143634372673802</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="J2" r:id="rId1" xr:uid="{2EF105F1-018C-4C2E-86C8-3728E2E67202}"/>
     <hyperlink ref="J3" r:id="rId2" xr:uid="{37C2B5A1-3FE7-40F6-9F19-AE283D7C5740}"/>
+    <hyperlink ref="J4" r:id="rId3" location=":~:text=EarthPower:%20Australia's%20first%20food%20waste,Sydney's%20waste%20away%20from%20landfills." xr:uid="{70ACC3CB-7DFD-4F20-85A1-A47AA99C93E3}"/>
+    <hyperlink ref="J5" r:id="rId4" xr:uid="{9CBB8E69-3ED6-474B-A2D0-1B832CA84AEC}"/>
+    <hyperlink ref="J6" r:id="rId5" display="https://www.webuild-group.com.au/en/projects/woodman-point-wrrf-sludge-treatment-upgrade/_x000a_" xr:uid="{E6E9AAE7-5B8F-4063-A125-5A565EE4DEDB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F76B12FCD9422046A6EB7FD34CB882B8" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d333bb0b12100a52f5ee7d52509e2d32">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3d713cba-7b20-4d67-a906-afe457999699" xmlns:ns3="5c2e61c1-d6bd-4c02-9775-85d72ce829b3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fd45534888ded01ede810529755839d4" ns2:_="" ns3:_="">
+    <xsd:import namespace="3d713cba-7b20-4d67-a906-afe457999699"/>
+    <xsd:import namespace="5c2e61c1-d6bd-4c02-9775-85d72ce829b3"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="3d713cba-7b20-4d67-a906-afe457999699" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="2a07ce56-8a67-4b02-b973-ce37ed4e891b" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="5c2e61c1-d6bd-4c02-9775-85d72ce829b3" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{b0ca18a7-1c54-485d-8caa-2423b4064929}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="5c2e61c1-d6bd-4c02-9775-85d72ce829b3">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3d713cba-7b20-4d67-a906-afe457999699">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="5c2e61c1-d6bd-4c02-9775-85d72ce829b3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70E96260-804B-4BE8-B8F5-689CFE8A6D31}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3d713cba-7b20-4d67-a906-afe457999699"/>
+    <ds:schemaRef ds:uri="5c2e61c1-d6bd-4c02-9775-85d72ce829b3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03FA0931-8C13-4F0F-973E-F27CE94DACEB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{46F9F1AD-14EB-458F-AAEA-30ACA5C475C2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3d713cba-7b20-4d67-a906-afe457999699"/>
+    <ds:schemaRef ds:uri="5c2e61c1-d6bd-4c02-9775-85d72ce829b3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/data_co2_map.xlsx
+++ b/data/data_co2_map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sopersas.sharepoint.com/sites/Gridlink-MGHEnergy/Shared Documents/Gridlink - MGH Energy/02 - Land prospecting/CO2 Study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="181" documentId="13_ncr:1_{9F830F70-CB80-49FE-9CA2-7266DA9CA17D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{714FE38B-57A7-4297-A443-A37FBECBD775}"/>
+  <xr:revisionPtr revIDLastSave="228" documentId="13_ncr:1_{9F830F70-CB80-49FE-9CA2-7266DA9CA17D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{44C70B80-8022-4D0D-B99C-34FC3DF7AA5C}"/>
   <bookViews>
-    <workbookView xWindow="15195" yWindow="-21720" windowWidth="38640" windowHeight="21120" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15195" yWindow="-21720" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GEN - Top 20 emit. facilities" sheetId="1" r:id="rId1"/>
@@ -795,7 +795,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -823,7 +823,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1754,7 +1753,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I6" sqref="A3:I6"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2180,8 +2179,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2943,7 +2942,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D488DE0E-CBD9-46B0-AED0-18DE400EDC19}">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
@@ -3136,24 +3135,23 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.77734375" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.21875" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.77734375" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="99.33203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.77734375" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.21875" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.88671875" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10" style="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.6640625" style="11"/>
+    <col min="1" max="1" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="99.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
@@ -3195,197 +3193,197 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+      <c r="A2" t="s">
         <v>99</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" t="s">
         <v>100</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" t="s">
         <v>101</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2">
         <v>35000</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" t="s">
         <v>215</v>
       </c>
-      <c r="G2" s="11">
+      <c r="G2">
         <v>0.6</v>
       </c>
-      <c r="H2" s="11">
+      <c r="H2">
         <f>G2*E2</f>
         <v>21000</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" t="s">
         <v>45</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="K2" s="11">
+      <c r="K2">
         <v>115.89828355143101</v>
       </c>
-      <c r="L2" s="11">
+      <c r="L2">
         <v>-32.104366066525799</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+      <c r="A3" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" t="s">
         <v>104</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" t="s">
         <v>105</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3">
         <v>236000</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" t="s">
         <v>107</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3">
         <v>0.9</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3">
         <f>E3*G3</f>
         <v>212400</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" t="s">
         <v>108</v>
       </c>
       <c r="J3" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="K3" s="11">
+      <c r="K3">
         <v>150.6105</v>
       </c>
-      <c r="L3" s="11">
+      <c r="L3">
         <v>-34.856070000000003</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
+      <c r="A4" t="s">
         <v>180</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" t="s">
         <v>182</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" t="s">
         <v>181</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4">
         <v>62500</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" t="s">
         <v>183</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4">
         <v>0.6</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4">
         <f>E4*G4</f>
         <v>37500</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" t="s">
         <v>108</v>
       </c>
       <c r="J4" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="K4" s="11">
+      <c r="K4">
         <v>151.041365980439</v>
       </c>
-      <c r="L4" s="11">
+      <c r="L4">
         <v>-33.820334000000003</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
+      <c r="A5" t="s">
         <v>187</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" t="s">
         <v>186</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" t="s">
         <v>185</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5">
         <v>24000</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" t="s">
         <v>188</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5">
         <v>0.6</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5">
         <f>E5*G5</f>
         <v>14400</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" t="s">
         <v>108</v>
       </c>
       <c r="J5" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="K5" s="11">
+      <c r="K5">
         <v>140.75707399999999</v>
       </c>
-      <c r="L5" s="11">
+      <c r="L5">
         <v>-36.316665</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
+      <c r="A6" t="s">
         <v>210</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" t="s">
         <v>208</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" t="s">
         <v>209</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" t="s">
         <v>207</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6">
         <v>9000</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" t="s">
         <v>215</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6">
         <v>0.45</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6">
         <f>E6*G6</f>
         <v>4050</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="I6" t="s">
         <v>108</v>
       </c>
       <c r="J6" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="K6" s="11">
+      <c r="K6">
         <v>115.772664612127</v>
       </c>
-      <c r="L6" s="11">
+      <c r="L6">
         <v>-32.143634372673802</v>
       </c>
     </row>
@@ -3402,6 +3400,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3d713cba-7b20-4d67-a906-afe457999699">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="5c2e61c1-d6bd-4c02-9775-85d72ce829b3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F76B12FCD9422046A6EB7FD34CB882B8" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d333bb0b12100a52f5ee7d52509e2d32">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3d713cba-7b20-4d67-a906-afe457999699" xmlns:ns3="5c2e61c1-d6bd-4c02-9775-85d72ce829b3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fd45534888ded01ede810529755839d4" ns2:_="" ns3:_="">
     <xsd:import namespace="3d713cba-7b20-4d67-a906-afe457999699"/>
@@ -3596,27 +3614,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{46F9F1AD-14EB-458F-AAEA-30ACA5C475C2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3d713cba-7b20-4d67-a906-afe457999699"/>
+    <ds:schemaRef ds:uri="5c2e61c1-d6bd-4c02-9775-85d72ce829b3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3d713cba-7b20-4d67-a906-afe457999699">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="5c2e61c1-d6bd-4c02-9775-85d72ce829b3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03FA0931-8C13-4F0F-973E-F27CE94DACEB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70E96260-804B-4BE8-B8F5-689CFE8A6D31}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3633,23 +3650,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03FA0931-8C13-4F0F-973E-F27CE94DACEB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{46F9F1AD-14EB-458F-AAEA-30ACA5C475C2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="3d713cba-7b20-4d67-a906-afe457999699"/>
-    <ds:schemaRef ds:uri="5c2e61c1-d6bd-4c02-9775-85d72ce829b3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/data_co2_map.xlsx
+++ b/data/data_co2_map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sopersas.sharepoint.com/sites/Gridlink-MGHEnergy/Shared Documents/Gridlink - MGH Energy/02 - Land prospecting/CO2 Study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="228" documentId="13_ncr:1_{9F830F70-CB80-49FE-9CA2-7266DA9CA17D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{44C70B80-8022-4D0D-B99C-34FC3DF7AA5C}"/>
+  <xr:revisionPtr revIDLastSave="229" documentId="13_ncr:1_{9F830F70-CB80-49FE-9CA2-7266DA9CA17D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90F83524-9805-43F9-AFCD-90B113582D0D}"/>
   <bookViews>
     <workbookView xWindow="15195" yWindow="-21720" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="212">
   <si>
     <t>Location</t>
   </si>
@@ -288,33 +288,6 @@
   </si>
   <si>
     <t>No (mostly fossil)</t>
-  </si>
-  <si>
-    <t>Manildra Flour Mill</t>
-  </si>
-  <si>
-    <t>Manildra, NSW</t>
-  </si>
-  <si>
-    <t>about 600,000 tonnes from more than 3.6Mt of raw materials</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.manildra.com.au/about-manildra-group/#:~:text=11-,MANUFACTURING%20FACILITIES,value%2C%20for%20global%20markets;%20and </t>
-  </si>
-  <si>
-    <r>
-      <t>Coal / biomass CHP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (largest in Aus)</t>
-    </r>
   </si>
   <si>
     <t>Perth, WA</t>
@@ -1209,13 +1182,13 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D2">
         <v>18723707</v>
@@ -1235,13 +1208,13 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D3">
         <v>13712719</v>
@@ -1261,13 +1234,13 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D4">
         <v>13550220</v>
@@ -1287,13 +1260,13 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D5">
         <v>10936021</v>
@@ -1313,13 +1286,13 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D6">
         <v>10502080</v>
@@ -1339,13 +1312,13 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D7">
         <v>9643955</v>
@@ -1365,13 +1338,13 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D8">
         <v>8802650</v>
@@ -1391,13 +1364,13 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D9">
         <v>7111963</v>
@@ -1417,13 +1390,13 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D10">
         <v>6982204</v>
@@ -1443,13 +1416,13 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D11">
         <v>6698961</v>
@@ -1469,13 +1442,13 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B12" t="s">
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D12">
         <v>6698961</v>
@@ -1495,13 +1468,13 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D13">
         <v>5962350.0000000009</v>
@@ -1521,13 +1494,13 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D14">
         <v>5945869</v>
@@ -1547,13 +1520,13 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B15" t="s">
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D15">
         <v>5672338</v>
@@ -1573,13 +1546,13 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D16">
         <v>3772123</v>
@@ -1599,13 +1572,13 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D17">
         <v>3168745</v>
@@ -1625,13 +1598,13 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B18" t="s">
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D18">
         <v>3086354</v>
@@ -1651,13 +1624,13 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B19" t="s">
         <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D19">
         <v>1988493</v>
@@ -1677,13 +1650,13 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B20" t="s">
         <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D20">
         <v>2084631</v>
@@ -1703,13 +1676,13 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B21" t="s">
         <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D21">
         <v>2108611</v>
@@ -1890,7 +1863,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>35</v>
@@ -2177,10 +2150,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C35AC6CE-3979-45FE-AB9A-99D625BE16FA}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2278,80 +2251,80 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" t="s">
         <v>78</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>79</v>
-      </c>
-      <c r="C3" t="s">
-        <v>73</v>
       </c>
       <c r="D3" t="s">
         <v>80</v>
       </c>
       <c r="E3" s="7">
-        <v>600000</v>
+        <v>110000</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>82</v>
       </c>
       <c r="G3" s="7">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="H3" s="7">
         <f>G3*E3</f>
-        <v>90000</v>
+        <v>22000</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="J3" s="9" t="s">
         <v>81</v>
       </c>
       <c r="K3" s="3">
-        <v>148.69849063498901</v>
+        <v>115.968197978853</v>
       </c>
       <c r="L3" s="3">
-        <v>-33.186389097135098</v>
+        <v>-31.9948784826856</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="B4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" t="s">
         <v>83</v>
-      </c>
-      <c r="C4" t="s">
-        <v>84</v>
       </c>
       <c r="D4" t="s">
         <v>85</v>
       </c>
       <c r="E4" s="7">
-        <v>110000</v>
+        <v>20000</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>87</v>
       </c>
       <c r="G4" s="7">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="H4" s="7">
         <f>G4*E4</f>
-        <v>22000</v>
+        <v>3800</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="J4" s="9" t="s">
         <v>86</v>
       </c>
       <c r="K4" s="3">
-        <v>115.968197978853</v>
+        <v>150.23421974191399</v>
       </c>
       <c r="L4" s="3">
-        <v>-31.9948784826856</v>
+        <v>-30.977809617005502</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -2368,81 +2341,54 @@
         <v>90</v>
       </c>
       <c r="E5" s="7">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>92</v>
       </c>
       <c r="G5" s="7">
-        <v>0.19</v>
+        <v>0.11</v>
       </c>
       <c r="H5" s="7">
         <f>G5*E5</f>
-        <v>3800</v>
+        <v>1980</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="J5" s="9" t="s">
         <v>91</v>
       </c>
       <c r="K5" s="3">
-        <v>150.23421974191399</v>
+        <v>147.136704638212</v>
       </c>
       <c r="L5" s="3">
-        <v>-30.977809617005502</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>93</v>
-      </c>
-      <c r="B6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D6" t="s">
-        <v>95</v>
-      </c>
-      <c r="E6" s="7">
-        <v>18000</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="G6" s="7">
-        <v>0.11</v>
-      </c>
-      <c r="H6" s="7">
-        <f>G6*E6</f>
-        <v>1980</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="K6" s="3">
-        <v>147.136704638212</v>
-      </c>
-      <c r="L6" s="3">
         <v>-41.432516299790102</v>
       </c>
     </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="10"/>
+    </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="10"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="7"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B12" s="3"/>
@@ -2492,24 +2438,11 @@
       <c r="K15" s="4"/>
       <c r="L15" s="7"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="7"/>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J3" r:id="rId1" location=":~:text=11-,MANUFACTURING%20FACILITIES,value%2C%20for%20global%20markets;%20and " xr:uid="{F1932EA6-041A-4203-B752-1F7DC0544952}"/>
-    <hyperlink ref="J4" r:id="rId2" location=":~:text=3rd%2C%202020-,Australia/Scotland:%20United%20Malt%20Group%20to%20add%20130%2C000%20tons%20at,and%20in%20exports%20to%20Asia. " xr:uid="{8760C9CE-EC94-4922-B41B-EE9516CBEC0F}"/>
-    <hyperlink ref="J5" r:id="rId3" xr:uid="{27A4DE8A-1F99-4FE5-8404-4B3E9C569923}"/>
-    <hyperlink ref="J6" r:id="rId4" location=":~:text=Tasmanian%20Flour%20Mills%20is%20the,are%20supplied%20with%20bagged%20flour." xr:uid="{B88ED962-CEE2-4EDA-9C5C-CAEA6FB1792D}"/>
+    <hyperlink ref="J3" r:id="rId1" location=":~:text=3rd%2C%202020-,Australia/Scotland:%20United%20Malt%20Group%20to%20add%20130%2C000%20tons%20at,and%20in%20exports%20to%20Asia. " xr:uid="{8760C9CE-EC94-4922-B41B-EE9516CBEC0F}"/>
+    <hyperlink ref="J4" r:id="rId2" xr:uid="{27A4DE8A-1F99-4FE5-8404-4B3E9C569923}"/>
+    <hyperlink ref="J5" r:id="rId3" location=":~:text=Tasmanian%20Flour%20Mills%20is%20the,are%20supplied%20with%20bagged%20flour." xr:uid="{B88ED962-CEE2-4EDA-9C5C-CAEA6FB1792D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2580,22 +2513,22 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>42</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E2" s="3">
         <v>250000</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="G2" s="3">
         <v>0</v>
@@ -2608,7 +2541,7 @@
         <v>26</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="K2" s="3">
         <v>153.11532801518899</v>
@@ -2619,22 +2552,22 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E3" s="3">
         <v>2000000</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="G3" s="3">
         <v>0</v>
@@ -2647,7 +2580,7 @@
         <v>26</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="K3" s="3">
         <v>150.83172224940799</v>
@@ -2658,22 +2591,22 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="E4" s="3">
         <v>460000</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="G4" s="3">
         <v>0.9</v>
@@ -2686,7 +2619,7 @@
         <v>51</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="K4" s="3">
         <v>115.777679429976</v>
@@ -2697,22 +2630,22 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="E5" s="3">
         <v>380000</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="G5" s="3">
         <v>0.9</v>
@@ -2725,7 +2658,7 @@
         <v>51</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="K5" s="3">
         <v>115.816829220503</v>
@@ -2736,22 +2669,22 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="E6" s="3">
         <v>2500000</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="G6" s="3">
         <v>0.8</v>
@@ -2764,7 +2697,7 @@
         <v>33</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="K6" s="3">
         <v>153.12302477284501</v>
@@ -2775,22 +2708,22 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E7" s="3">
         <v>1300000</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="G7" s="3">
         <v>0.8</v>
@@ -2803,7 +2736,7 @@
         <v>33</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="K7" s="3">
         <v>144.722017414937</v>
@@ -2814,22 +2747,22 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E8" s="3">
         <v>970000</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="G8" s="3">
         <v>0.8</v>
@@ -2842,7 +2775,7 @@
         <v>33</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="K8" s="3">
         <v>150.97284943997599</v>
@@ -2853,22 +2786,22 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E9" s="7">
         <v>330000</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="G9" s="3">
         <v>0.9</v>
@@ -2881,7 +2814,7 @@
         <v>51</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="K9" s="5">
         <v>115.77455728524799</v>
@@ -3002,23 +2935,23 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="E2" s="3">
         <f>1.68*24*365</f>
         <v>14716.8</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="G2" s="3">
         <v>0.9</v>
@@ -3028,10 +2961,10 @@
         <v>13245.119999999999</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="K2" s="3">
         <v>152.69779216887</v>
@@ -3042,22 +2975,22 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B3" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D3" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E3">
         <v>1300</v>
       </c>
       <c r="F3" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="G3">
         <v>0.45</v>
@@ -3067,10 +3000,10 @@
         <v>585</v>
       </c>
       <c r="I3" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="K3">
         <v>143.71001669341601</v>
@@ -3081,22 +3014,22 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B4" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C4" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D4" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="E4">
         <v>90000</v>
       </c>
       <c r="F4" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="G4">
         <v>0.73</v>
@@ -3106,10 +3039,10 @@
         <v>65700</v>
       </c>
       <c r="I4" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="K4">
         <v>142.32693946433699</v>
@@ -3194,22 +3127,22 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E2">
         <v>35000</v>
       </c>
       <c r="F2" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="G2">
         <v>0.6</v>
@@ -3222,7 +3155,7 @@
         <v>45</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="K2">
         <v>115.89828355143101</v>
@@ -3233,22 +3166,22 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D3" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E3">
         <v>236000</v>
       </c>
       <c r="F3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="G3">
         <v>0.9</v>
@@ -3258,10 +3191,10 @@
         <v>212400</v>
       </c>
       <c r="I3" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="K3">
         <v>150.6105</v>
@@ -3272,22 +3205,22 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D4" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E4">
         <v>62500</v>
       </c>
       <c r="F4" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="G4">
         <v>0.6</v>
@@ -3297,10 +3230,10 @@
         <v>37500</v>
       </c>
       <c r="I4" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="K4">
         <v>151.041365980439</v>
@@ -3311,22 +3244,22 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D5" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E5">
         <v>24000</v>
       </c>
       <c r="F5" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G5">
         <v>0.6</v>
@@ -3336,10 +3269,10 @@
         <v>14400</v>
       </c>
       <c r="I5" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="K5">
         <v>140.75707399999999</v>
@@ -3350,22 +3283,22 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B6" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C6" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D6" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="E6">
         <v>9000</v>
       </c>
       <c r="F6" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="G6">
         <v>0.45</v>
@@ -3375,10 +3308,10 @@
         <v>4050</v>
       </c>
       <c r="I6" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="K6">
         <v>115.772664612127</v>
@@ -3400,26 +3333,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3d713cba-7b20-4d67-a906-afe457999699">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="5c2e61c1-d6bd-4c02-9775-85d72ce829b3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F76B12FCD9422046A6EB7FD34CB882B8" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d333bb0b12100a52f5ee7d52509e2d32">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3d713cba-7b20-4d67-a906-afe457999699" xmlns:ns3="5c2e61c1-d6bd-4c02-9775-85d72ce829b3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fd45534888ded01ede810529755839d4" ns2:_="" ns3:_="">
     <xsd:import namespace="3d713cba-7b20-4d67-a906-afe457999699"/>
@@ -3614,26 +3527,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{46F9F1AD-14EB-458F-AAEA-30ACA5C475C2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="3d713cba-7b20-4d67-a906-afe457999699"/>
-    <ds:schemaRef ds:uri="5c2e61c1-d6bd-4c02-9775-85d72ce829b3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03FA0931-8C13-4F0F-973E-F27CE94DACEB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3d713cba-7b20-4d67-a906-afe457999699">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="5c2e61c1-d6bd-4c02-9775-85d72ce829b3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70E96260-804B-4BE8-B8F5-689CFE8A6D31}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3650,4 +3564,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03FA0931-8C13-4F0F-973E-F27CE94DACEB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{46F9F1AD-14EB-458F-AAEA-30ACA5C475C2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3d713cba-7b20-4d67-a906-afe457999699"/>
+    <ds:schemaRef ds:uri="5c2e61c1-d6bd-4c02-9775-85d72ce829b3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/data_co2_map.xlsx
+++ b/data/data_co2_map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sopersas.sharepoint.com/sites/Gridlink-MGHEnergy/Shared Documents/Gridlink - MGH Energy/02 - Land prospecting/CO2 Study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="229" documentId="13_ncr:1_{9F830F70-CB80-49FE-9CA2-7266DA9CA17D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90F83524-9805-43F9-AFCD-90B113582D0D}"/>
+  <xr:revisionPtr revIDLastSave="230" documentId="13_ncr:1_{9F830F70-CB80-49FE-9CA2-7266DA9CA17D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{36B53A94-D98D-4BD3-BA7B-D36FD91CB40B}"/>
   <bookViews>
     <workbookView xWindow="15195" yWindow="-21720" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="205">
   <si>
     <t>Location</t>
   </si>
@@ -255,39 +255,6 @@
   </si>
   <si>
     <t>Biogenic ?</t>
-  </si>
-  <si>
-    <t>Shoalhaven Starches Flour Mill</t>
-  </si>
-  <si>
-    <t>Nowra, NSW</t>
-  </si>
-  <si>
-    <t>Manildra Group</t>
-  </si>
-  <si>
-    <t>265,000 tonnes of flour</t>
-  </si>
-  <si>
-    <t>https://majorprojects.planningportal.nsw.gov.au/prweb/PRRestService/mp/01/getContent?AttachRef=MP07_0021%2120190821T013131.298%20GMT</t>
-  </si>
-  <si>
-    <r>
-      <t>Coal / gas mix</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (site has large CHP)</t>
-    </r>
-  </si>
-  <si>
-    <t>No (mostly fossil)</t>
   </si>
   <si>
     <t>Perth, WA</t>
@@ -1182,13 +1149,13 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="D2">
         <v>18723707</v>
@@ -1208,13 +1175,13 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="D3">
         <v>13712719</v>
@@ -1234,13 +1201,13 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="D4">
         <v>13550220</v>
@@ -1260,13 +1227,13 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="D5">
         <v>10936021</v>
@@ -1286,13 +1253,13 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="D6">
         <v>10502080</v>
@@ -1312,13 +1279,13 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="D7">
         <v>9643955</v>
@@ -1338,13 +1305,13 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D8">
         <v>8802650</v>
@@ -1364,13 +1331,13 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="D9">
         <v>7111963</v>
@@ -1390,13 +1357,13 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="D10">
         <v>6982204</v>
@@ -1416,13 +1383,13 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="D11">
         <v>6698961</v>
@@ -1442,13 +1409,13 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B12" t="s">
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="D12">
         <v>6698961</v>
@@ -1468,13 +1435,13 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D13">
         <v>5962350.0000000009</v>
@@ -1494,13 +1461,13 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D14">
         <v>5945869</v>
@@ -1520,13 +1487,13 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B15" t="s">
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="D15">
         <v>5672338</v>
@@ -1546,13 +1513,13 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D16">
         <v>3772123</v>
@@ -1572,13 +1539,13 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="D17">
         <v>3168745</v>
@@ -1598,13 +1565,13 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B18" t="s">
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="D18">
         <v>3086354</v>
@@ -1624,13 +1591,13 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="B19" t="s">
         <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="D19">
         <v>1988493</v>
@@ -1650,13 +1617,13 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="B20" t="s">
         <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="D20">
         <v>2084631</v>
@@ -1676,13 +1643,13 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="B21" t="s">
         <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="D21">
         <v>2108611</v>
@@ -1863,7 +1830,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>35</v>
@@ -2150,10 +2117,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C35AC6CE-3979-45FE-AB9A-99D625BE16FA}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2212,171 +2179,144 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" t="s">
         <v>71</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>72</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>73</v>
       </c>
-      <c r="D2" t="s">
-        <v>74</v>
-      </c>
       <c r="E2" s="7">
-        <v>265000</v>
+        <v>110000</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G2" s="7">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="H2" s="7">
         <f>G2*E2</f>
-        <v>39750</v>
+        <v>22000</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>75</v>
+        <v>26</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>74</v>
       </c>
       <c r="K2" s="3">
-        <v>150.61152802857001</v>
+        <v>115.968197978853</v>
       </c>
       <c r="L2" s="3">
-        <v>-34.857228359018102</v>
+        <v>-31.9948784826856</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" t="s">
         <v>78</v>
       </c>
-      <c r="C3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" s="7">
+        <v>20000</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="E3" s="7">
-        <v>110000</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>82</v>
-      </c>
       <c r="G3" s="7">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="H3" s="7">
         <f>G3*E3</f>
-        <v>22000</v>
+        <v>3800</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K3" s="3">
-        <v>115.968197978853</v>
+        <v>150.23421974191399</v>
       </c>
       <c r="L3" s="3">
-        <v>-31.9948784826856</v>
+        <v>-30.977809617005502</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" t="s">
         <v>83</v>
       </c>
-      <c r="B4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" s="7">
+        <v>18000</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="E4" s="7">
-        <v>20000</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>87</v>
-      </c>
       <c r="G4" s="7">
-        <v>0.19</v>
+        <v>0.11</v>
       </c>
       <c r="H4" s="7">
         <f>G4*E4</f>
-        <v>3800</v>
+        <v>1980</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K4" s="3">
-        <v>150.23421974191399</v>
+        <v>147.136704638212</v>
       </c>
       <c r="L4" s="3">
-        <v>-30.977809617005502</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E5" s="7">
-        <v>18000</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="G5" s="7">
-        <v>0.11</v>
-      </c>
-      <c r="H5" s="7">
-        <f>G5*E5</f>
-        <v>1980</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="K5" s="3">
-        <v>147.136704638212</v>
-      </c>
-      <c r="L5" s="3">
         <v>-41.432516299790102</v>
       </c>
     </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="10"/>
+    </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="10"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="7"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B11" s="3"/>
@@ -2426,23 +2366,11 @@
       <c r="K14" s="4"/>
       <c r="L14" s="7"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="7"/>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J3" r:id="rId1" location=":~:text=3rd%2C%202020-,Australia/Scotland:%20United%20Malt%20Group%20to%20add%20130%2C000%20tons%20at,and%20in%20exports%20to%20Asia. " xr:uid="{8760C9CE-EC94-4922-B41B-EE9516CBEC0F}"/>
-    <hyperlink ref="J4" r:id="rId2" xr:uid="{27A4DE8A-1F99-4FE5-8404-4B3E9C569923}"/>
-    <hyperlink ref="J5" r:id="rId3" location=":~:text=Tasmanian%20Flour%20Mills%20is%20the,are%20supplied%20with%20bagged%20flour." xr:uid="{B88ED962-CEE2-4EDA-9C5C-CAEA6FB1792D}"/>
+    <hyperlink ref="J2" r:id="rId1" location=":~:text=3rd%2C%202020-,Australia/Scotland:%20United%20Malt%20Group%20to%20add%20130%2C000%20tons%20at,and%20in%20exports%20to%20Asia. " xr:uid="{8760C9CE-EC94-4922-B41B-EE9516CBEC0F}"/>
+    <hyperlink ref="J3" r:id="rId2" xr:uid="{27A4DE8A-1F99-4FE5-8404-4B3E9C569923}"/>
+    <hyperlink ref="J4" r:id="rId3" location=":~:text=Tasmanian%20Flour%20Mills%20is%20the,are%20supplied%20with%20bagged%20flour." xr:uid="{B88ED962-CEE2-4EDA-9C5C-CAEA6FB1792D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2513,22 +2441,22 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>42</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E2" s="3">
         <v>250000</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="G2" s="3">
         <v>0</v>
@@ -2541,7 +2469,7 @@
         <v>26</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="K2" s="3">
         <v>153.11532801518899</v>
@@ -2552,22 +2480,22 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="E3" s="3">
         <v>2000000</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="G3" s="3">
         <v>0</v>
@@ -2580,7 +2508,7 @@
         <v>26</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="K3" s="3">
         <v>150.83172224940799</v>
@@ -2591,22 +2519,22 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="E4" s="3">
         <v>460000</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="G4" s="3">
         <v>0.9</v>
@@ -2619,7 +2547,7 @@
         <v>51</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="K4" s="3">
         <v>115.777679429976</v>
@@ -2630,22 +2558,22 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="E5" s="3">
         <v>380000</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="G5" s="3">
         <v>0.9</v>
@@ -2658,7 +2586,7 @@
         <v>51</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="K5" s="3">
         <v>115.816829220503</v>
@@ -2669,22 +2597,22 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="E6" s="3">
         <v>2500000</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="G6" s="3">
         <v>0.8</v>
@@ -2697,7 +2625,7 @@
         <v>33</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="K6" s="3">
         <v>153.12302477284501</v>
@@ -2708,22 +2636,22 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="E7" s="3">
         <v>1300000</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="G7" s="3">
         <v>0.8</v>
@@ -2736,7 +2664,7 @@
         <v>33</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="K7" s="3">
         <v>144.722017414937</v>
@@ -2747,22 +2675,22 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E8" s="3">
         <v>970000</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="G8" s="3">
         <v>0.8</v>
@@ -2775,7 +2703,7 @@
         <v>33</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="K8" s="3">
         <v>150.97284943997599</v>
@@ -2786,22 +2714,22 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="E9" s="7">
         <v>330000</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="G9" s="3">
         <v>0.9</v>
@@ -2814,7 +2742,7 @@
         <v>51</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="K9" s="5">
         <v>115.77455728524799</v>
@@ -2935,23 +2863,23 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="E2" s="3">
         <f>1.68*24*365</f>
         <v>14716.8</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="G2" s="3">
         <v>0.9</v>
@@ -2961,10 +2889,10 @@
         <v>13245.119999999999</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="K2" s="3">
         <v>152.69779216887</v>
@@ -2975,22 +2903,22 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="B3" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="C3" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="D3" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="E3">
         <v>1300</v>
       </c>
       <c r="F3" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="G3">
         <v>0.45</v>
@@ -3000,10 +2928,10 @@
         <v>585</v>
       </c>
       <c r="I3" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="K3">
         <v>143.71001669341601</v>
@@ -3014,22 +2942,22 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="B4" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="C4" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="D4" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="E4">
         <v>90000</v>
       </c>
       <c r="F4" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="G4">
         <v>0.73</v>
@@ -3039,10 +2967,10 @@
         <v>65700</v>
       </c>
       <c r="I4" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="K4">
         <v>142.32693946433699</v>
@@ -3127,22 +3055,22 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="E2">
         <v>35000</v>
       </c>
       <c r="F2" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="G2">
         <v>0.6</v>
@@ -3155,7 +3083,7 @@
         <v>45</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="K2">
         <v>115.89828355143101</v>
@@ -3166,22 +3094,22 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D3" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="E3">
         <v>236000</v>
       </c>
       <c r="F3" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="G3">
         <v>0.9</v>
@@ -3191,10 +3119,10 @@
         <v>212400</v>
       </c>
       <c r="I3" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="K3">
         <v>150.6105</v>
@@ -3205,22 +3133,22 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="D4" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="E4">
         <v>62500</v>
       </c>
       <c r="F4" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="G4">
         <v>0.6</v>
@@ -3230,10 +3158,10 @@
         <v>37500</v>
       </c>
       <c r="I4" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="K4">
         <v>151.041365980439</v>
@@ -3244,22 +3172,22 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="D5" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="E5">
         <v>24000</v>
       </c>
       <c r="F5" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="G5">
         <v>0.6</v>
@@ -3269,10 +3197,10 @@
         <v>14400</v>
       </c>
       <c r="I5" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="K5">
         <v>140.75707399999999</v>
@@ -3283,22 +3211,22 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="B6" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="C6" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="D6" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="E6">
         <v>9000</v>
       </c>
       <c r="F6" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="G6">
         <v>0.45</v>
@@ -3308,10 +3236,10 @@
         <v>4050</v>
       </c>
       <c r="I6" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="K6">
         <v>115.772664612127</v>
@@ -3333,6 +3261,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3d713cba-7b20-4d67-a906-afe457999699">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="5c2e61c1-d6bd-4c02-9775-85d72ce829b3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F76B12FCD9422046A6EB7FD34CB882B8" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d333bb0b12100a52f5ee7d52509e2d32">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3d713cba-7b20-4d67-a906-afe457999699" xmlns:ns3="5c2e61c1-d6bd-4c02-9775-85d72ce829b3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fd45534888ded01ede810529755839d4" ns2:_="" ns3:_="">
     <xsd:import namespace="3d713cba-7b20-4d67-a906-afe457999699"/>
@@ -3527,27 +3475,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{46F9F1AD-14EB-458F-AAEA-30ACA5C475C2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3d713cba-7b20-4d67-a906-afe457999699"/>
+    <ds:schemaRef ds:uri="5c2e61c1-d6bd-4c02-9775-85d72ce829b3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3d713cba-7b20-4d67-a906-afe457999699">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="5c2e61c1-d6bd-4c02-9775-85d72ce829b3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03FA0931-8C13-4F0F-973E-F27CE94DACEB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70E96260-804B-4BE8-B8F5-689CFE8A6D31}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3564,23 +3511,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03FA0931-8C13-4F0F-973E-F27CE94DACEB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{46F9F1AD-14EB-458F-AAEA-30ACA5C475C2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="3d713cba-7b20-4d67-a906-afe457999699"/>
-    <ds:schemaRef ds:uri="5c2e61c1-d6bd-4c02-9775-85d72ce829b3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/data_co2_map.xlsx
+++ b/data/data_co2_map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sopersas.sharepoint.com/sites/Gridlink-MGHEnergy/Shared Documents/Gridlink - MGH Energy/02 - Land prospecting/CO2 Study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="230" documentId="13_ncr:1_{9F830F70-CB80-49FE-9CA2-7266DA9CA17D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{36B53A94-D98D-4BD3-BA7B-D36FD91CB40B}"/>
+  <xr:revisionPtr revIDLastSave="269" documentId="13_ncr:1_{9F830F70-CB80-49FE-9CA2-7266DA9CA17D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2DF7AE39-0AEA-4ED3-A511-25415794E364}"/>
   <bookViews>
-    <workbookView xWindow="15195" yWindow="-21720" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15195" yWindow="-21720" windowWidth="38640" windowHeight="21120" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GEN - Top 20 emit. facilities" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="213">
   <si>
     <t>Location</t>
   </si>
@@ -683,6 +683,30 @@
   </si>
   <si>
     <t>nut shells</t>
+  </si>
+  <si>
+    <t>South Cardup Landfill Gas Project</t>
+  </si>
+  <si>
+    <t>LMS Energy</t>
+  </si>
+  <si>
+    <t>site receiving between 18,000 and 25,000 tonnes of non-putrescible and putrescible waste per month</t>
+  </si>
+  <si>
+    <t>https://selectcivil.com.au/projects/south-cardup-landfill-sita-australia/</t>
+  </si>
+  <si>
+    <t>Tamala Park LFG Power Station</t>
+  </si>
+  <si>
+    <t>EDL</t>
+  </si>
+  <si>
+    <t>https://www.mrc.wa.gov.au/tamala-park/other-services/landfill-gas.aspx#:~:text=Tamala%20Park%20is%20home%20to,found%20on%20the%20EDL%20website.</t>
+  </si>
+  <si>
+    <t>capacity of six megawatts</t>
   </si>
 </sst>
 </file>
@@ -2119,7 +2143,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
@@ -2381,8 +2405,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2735,7 +2759,7 @@
         <v>0.9</v>
       </c>
       <c r="H9" s="3">
-        <f t="shared" ref="H9" si="1">E9*G9</f>
+        <f t="shared" ref="H9:H10" si="1">E9*G9</f>
         <v>297000</v>
       </c>
       <c r="I9" s="3" t="s">
@@ -2752,26 +2776,80 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="3"/>
+      <c r="A10" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E10" s="7">
+        <f>21.5*12*1000</f>
+        <v>258000</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="H10" s="3">
+        <f t="shared" si="1"/>
+        <v>232200</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="K10" s="5">
+        <v>116.01916872307901</v>
+      </c>
+      <c r="L10" s="5">
+        <v>-32.266404199858698</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="3"/>
+      <c r="A11" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="H11" s="3">
+        <v>235000</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="K11" s="5">
+        <v>115.726560963035</v>
+      </c>
+      <c r="L11" s="5">
+        <v>-31.707826453571599</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B12" s="3"/>
@@ -2794,6 +2872,8 @@
     <hyperlink ref="J7" r:id="rId6" xr:uid="{B21AF6DE-D56B-463D-9BD0-98ECE241AB64}"/>
     <hyperlink ref="J8" r:id="rId7" xr:uid="{ECE15D3F-6A62-4DA0-81A1-47D16D16316F}"/>
     <hyperlink ref="J9" r:id="rId8" xr:uid="{DC7E4518-0DC4-41BC-8A56-85566B2B4697}"/>
+    <hyperlink ref="J10" r:id="rId9" xr:uid="{70E685C8-E1BD-469A-B790-7704A49A5029}"/>
+    <hyperlink ref="J11" r:id="rId10" location=":~:text=Tamala%20Park%20is%20home%20to,found%20on%20the%20EDL%20website." xr:uid="{1946BEF0-9DD3-4D5A-8603-817BC4041365}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3261,26 +3341,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3d713cba-7b20-4d67-a906-afe457999699">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="5c2e61c1-d6bd-4c02-9775-85d72ce829b3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F76B12FCD9422046A6EB7FD34CB882B8" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d333bb0b12100a52f5ee7d52509e2d32">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3d713cba-7b20-4d67-a906-afe457999699" xmlns:ns3="5c2e61c1-d6bd-4c02-9775-85d72ce829b3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fd45534888ded01ede810529755839d4" ns2:_="" ns3:_="">
     <xsd:import namespace="3d713cba-7b20-4d67-a906-afe457999699"/>
@@ -3475,26 +3535,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{46F9F1AD-14EB-458F-AAEA-30ACA5C475C2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="3d713cba-7b20-4d67-a906-afe457999699"/>
-    <ds:schemaRef ds:uri="5c2e61c1-d6bd-4c02-9775-85d72ce829b3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03FA0931-8C13-4F0F-973E-F27CE94DACEB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3d713cba-7b20-4d67-a906-afe457999699">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="5c2e61c1-d6bd-4c02-9775-85d72ce829b3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70E96260-804B-4BE8-B8F5-689CFE8A6D31}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3511,4 +3572,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03FA0931-8C13-4F0F-973E-F27CE94DACEB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{46F9F1AD-14EB-458F-AAEA-30ACA5C475C2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3d713cba-7b20-4d67-a906-afe457999699"/>
+    <ds:schemaRef ds:uri="5c2e61c1-d6bd-4c02-9775-85d72ce829b3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>